--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brad/dev/garden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEB3227-F4CB-FB40-A824-614A9F86BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502B130-ABA5-7342-93D4-EDF31EE08BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14900" xr2:uid="{D42D4832-B270-0748-9C8B-6C73CCDA88B4}"/>
   </bookViews>
@@ -30,6 +30,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>PRICE each</t>
+  </si>
+  <si>
+    <t>2x10x10 board</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +399,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03933CD1-6321-FA4D-82A8-BD4D264DFA1D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>